--- a/Code/Results/Cases/Case_0_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_132/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1967502173360032</v>
+        <v>0.05070303331908121</v>
       </c>
       <c r="D2">
-        <v>0.5829967014764463</v>
+        <v>0.2332309276366971</v>
       </c>
       <c r="E2">
-        <v>0.0142120670107273</v>
+        <v>0.04604448509146364</v>
       </c>
       <c r="F2">
-        <v>16.07645254684741</v>
+        <v>14.91324311680154</v>
       </c>
       <c r="G2">
-        <v>0.0006807561506766882</v>
+        <v>0.002918073986712848</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.23455945302899</v>
+        <v>11.19940568461726</v>
       </c>
       <c r="J2">
-        <v>0.2656263003753168</v>
+        <v>0.4134903892802129</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.07650643299081494</v>
+        <v>0.2071373558207199</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1594933935730722</v>
+        <v>0.04543810182417474</v>
       </c>
       <c r="D3">
-        <v>0.4760776125694406</v>
+        <v>0.2199300229874552</v>
       </c>
       <c r="E3">
-        <v>0.01425797257715589</v>
+        <v>0.0462045057043019</v>
       </c>
       <c r="F3">
-        <v>13.59712010286773</v>
+        <v>14.716383197151</v>
       </c>
       <c r="G3">
-        <v>0.000725670740002985</v>
+        <v>0.00293686367382925</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>10.33876312437312</v>
+        <v>11.04696120098782</v>
       </c>
       <c r="J3">
-        <v>0.2339730024193614</v>
+        <v>0.4132330119170931</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07275109295501281</v>
+        <v>0.2084080281729008</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1394234688708167</v>
+        <v>0.04225366310134859</v>
       </c>
       <c r="D4">
-        <v>0.4186755896415377</v>
+        <v>0.2119966071514625</v>
       </c>
       <c r="E4">
-        <v>0.01430991394935122</v>
+        <v>0.04630899095269991</v>
       </c>
       <c r="F4">
-        <v>12.27520702672405</v>
+        <v>14.60697997074351</v>
       </c>
       <c r="G4">
-        <v>0.0007516382942511656</v>
+        <v>0.002948941771239945</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.32785506050601</v>
+        <v>10.96202227129362</v>
       </c>
       <c r="J4">
-        <v>0.2173989349185064</v>
+        <v>0.4133321067961759</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07094242664805606</v>
+        <v>0.2092837934835892</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1317306016124604</v>
+        <v>0.04096734721807138</v>
       </c>
       <c r="D5">
-        <v>0.396720420867581</v>
+        <v>0.2088201796358078</v>
       </c>
       <c r="E5">
-        <v>0.01433546389133022</v>
+        <v>0.04635313975006827</v>
       </c>
       <c r="F5">
-        <v>11.77202630759086</v>
+        <v>14.56523231834893</v>
       </c>
       <c r="G5">
-        <v>0.0007619856365092461</v>
+        <v>0.002954000779421528</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.943021621512258</v>
+        <v>10.92954969324299</v>
       </c>
       <c r="J5">
-        <v>0.2111593453949681</v>
+        <v>0.4134365316262603</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07029914555820227</v>
+        <v>0.2096646463383678</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068605894</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1304779011945385</v>
+        <v>0.04075442023130904</v>
       </c>
       <c r="D6">
-        <v>0.3931480684597091</v>
+        <v>0.2082960865213863</v>
       </c>
       <c r="E6">
-        <v>0.01433993945309942</v>
+        <v>0.04636056555516221</v>
       </c>
       <c r="F6">
-        <v>11.69030205998303</v>
+        <v>14.55846998389433</v>
       </c>
       <c r="G6">
-        <v>0.0007636932500567628</v>
+        <v>0.002954849132652956</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.880516525014144</v>
+        <v>10.92428587027445</v>
       </c>
       <c r="J6">
-        <v>0.2101499848031025</v>
+        <v>0.413457721899178</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07019732598794448</v>
+        <v>0.2097293328199683</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110552</v>
+        <v>2.2803432614038</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1393179726258182</v>
+        <v>0.04223627035509026</v>
       </c>
       <c r="D7">
-        <v>0.4183743142729952</v>
+        <v>0.2119535427891606</v>
       </c>
       <c r="E7">
-        <v>0.01431024228639544</v>
+        <v>0.04630957999684027</v>
       </c>
       <c r="F7">
-        <v>12.26829209907493</v>
+        <v>14.60640553169947</v>
       </c>
       <c r="G7">
-        <v>0.0007517786214963463</v>
+        <v>0.002949009442290111</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.322566664752799</v>
+        <v>10.96157571557316</v>
       </c>
       <c r="J7">
-        <v>0.2173129080366749</v>
+        <v>0.413333256588146</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07093340291566008</v>
+        <v>0.2092888328137334</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.183149817510909</v>
+        <v>0.04887720126328077</v>
       </c>
       <c r="D8">
-        <v>0.5439215273542573</v>
+        <v>0.2285949924482793</v>
       </c>
       <c r="E8">
-        <v>0.0142216714017287</v>
+        <v>0.04609836862104189</v>
       </c>
       <c r="F8">
-        <v>15.16838412758995</v>
+        <v>14.84295510381548</v>
       </c>
       <c r="G8">
-        <v>0.0006967095731093186</v>
+        <v>0.002924440968055497</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.5402370618059</v>
+        <v>11.14502178447376</v>
       </c>
       <c r="J8">
-        <v>0.2539586603302695</v>
+        <v>0.4133479004539282</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.07508414115937256</v>
+        <v>0.2075556110779466</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>2.766433886209882</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3167161882005018</v>
+        <v>0.06231916246990465</v>
       </c>
       <c r="D9">
-        <v>0.9288042338228593</v>
+        <v>0.263184562747341</v>
       </c>
       <c r="E9">
-        <v>0.01444986585389474</v>
+        <v>0.04573349430175133</v>
       </c>
       <c r="F9">
-        <v>24.13816242301971</v>
+        <v>15.40017927948475</v>
       </c>
       <c r="G9">
-        <v>0.000556567561823862</v>
+        <v>0.002880509321703251</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.39882825348548</v>
+        <v>11.57528781273442</v>
       </c>
       <c r="J9">
-        <v>0.3718193369973477</v>
+        <v>0.4154463219016691</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.09067376225554824</v>
+        <v>0.2049180654707214</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550619</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3167161882005018</v>
+        <v>0.07250352962753936</v>
       </c>
       <c r="D10">
-        <v>0.9288042338228593</v>
+        <v>0.2899419851918594</v>
       </c>
       <c r="E10">
-        <v>0.01444986585389474</v>
+        <v>0.04549529974901456</v>
       </c>
       <c r="F10">
-        <v>24.13816242301971</v>
+        <v>15.86993682970268</v>
       </c>
       <c r="G10">
-        <v>0.000556567561823862</v>
+        <v>0.002850755127416633</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>18.39882825348548</v>
+        <v>11.9370448425725</v>
       </c>
       <c r="J10">
-        <v>0.3718193369973477</v>
+        <v>0.4182935905188856</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09067376225554824</v>
+        <v>0.2034490359930601</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.620230281550619</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3167161882005018</v>
+        <v>0.07721590248792154</v>
       </c>
       <c r="D11">
-        <v>0.9288042338228593</v>
+        <v>0.3024417553300225</v>
       </c>
       <c r="E11">
-        <v>0.01444986585389474</v>
+        <v>0.04539339087058236</v>
       </c>
       <c r="F11">
-        <v>24.13816242301971</v>
+        <v>16.09755312645564</v>
       </c>
       <c r="G11">
-        <v>0.000556567561823862</v>
+        <v>0.002837751999561609</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>18.39882825348548</v>
+        <v>12.11214286542514</v>
       </c>
       <c r="J11">
-        <v>0.3718193369973477</v>
+        <v>0.419882658873604</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.09067376225554824</v>
+        <v>0.2028836782583454</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.620230281550619</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3167161882005018</v>
+        <v>0.07901282628256467</v>
       </c>
       <c r="D12">
-        <v>0.9288042338228593</v>
+        <v>0.30722522566316</v>
       </c>
       <c r="E12">
-        <v>0.01444986585389474</v>
+        <v>0.0453557252531045</v>
       </c>
       <c r="F12">
-        <v>24.13816242301971</v>
+        <v>16.18581648607648</v>
       </c>
       <c r="G12">
-        <v>0.000556567561823862</v>
+        <v>0.002832903357964923</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>18.39882825348548</v>
+        <v>12.18001544486083</v>
       </c>
       <c r="J12">
-        <v>0.3718193369973477</v>
+        <v>0.4205275429961972</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.09067376225554824</v>
+        <v>0.2026844950552231</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.620230281550619</v>
+        <v>4.460285735713398</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3167161882005018</v>
+        <v>0.07862525599406922</v>
       </c>
       <c r="D13">
-        <v>0.9288042338228593</v>
+        <v>0.3061927437985901</v>
       </c>
       <c r="E13">
-        <v>0.01444986585389474</v>
+        <v>0.04536379610535901</v>
       </c>
       <c r="F13">
-        <v>24.13816242301971</v>
+        <v>16.16671420453912</v>
       </c>
       <c r="G13">
-        <v>0.000556567561823862</v>
+        <v>0.002833944266697669</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>18.39882825348548</v>
+        <v>12.16532732895178</v>
       </c>
       <c r="J13">
-        <v>0.3718193369973477</v>
+        <v>0.4203867224228901</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.09067376225554824</v>
+        <v>0.2027267280018776</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.620230281550619</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3167161882005018</v>
+        <v>0.07736348091248146</v>
       </c>
       <c r="D14">
-        <v>0.9288042338228593</v>
+        <v>0.3028342731927296</v>
       </c>
       <c r="E14">
-        <v>0.01444986585389474</v>
+        <v>0.04539027356878123</v>
       </c>
       <c r="F14">
-        <v>24.13816242301971</v>
+        <v>16.10477271695669</v>
       </c>
       <c r="G14">
-        <v>0.000556567561823862</v>
+        <v>0.002837351595314271</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>18.39882825348548</v>
+        <v>12.11769507480591</v>
       </c>
       <c r="J14">
-        <v>0.3718193369973477</v>
+        <v>0.4199348440663329</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.09067376225554824</v>
+        <v>0.2028669919647186</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.620230281550619</v>
+        <v>4.371107314139238</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3167161882005018</v>
+        <v>0.07659225993793939</v>
       </c>
       <c r="D15">
-        <v>0.9288042338228593</v>
+        <v>0.3007837249947158</v>
       </c>
       <c r="E15">
-        <v>0.01444986585389474</v>
+        <v>0.0454066121936938</v>
       </c>
       <c r="F15">
-        <v>24.13816242301971</v>
+        <v>16.06710342733282</v>
       </c>
       <c r="G15">
-        <v>0.000556567561823862</v>
+        <v>0.002839448460991947</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>18.39882825348548</v>
+        <v>12.08872457605707</v>
       </c>
       <c r="J15">
-        <v>0.3718193369973477</v>
+        <v>0.4196637005733095</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.09067376225554824</v>
+        <v>0.2029548521475704</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.620230281550619</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3167161882005018</v>
+        <v>0.07219725028929247</v>
       </c>
       <c r="D16">
-        <v>0.9288042338228593</v>
+        <v>0.2891319392111882</v>
       </c>
       <c r="E16">
-        <v>0.01444986585389474</v>
+        <v>0.04550208928837152</v>
       </c>
       <c r="F16">
-        <v>24.13816242301971</v>
+        <v>15.85534744512699</v>
       </c>
       <c r="G16">
-        <v>0.000556567561823862</v>
+        <v>0.002851615522453562</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>18.39882825348548</v>
+        <v>11.92581811945206</v>
       </c>
       <c r="J16">
-        <v>0.3718193369973477</v>
+        <v>0.4181957283879427</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09067376225554824</v>
+        <v>0.203488063243455</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.620230281550619</v>
+        <v>4.089429168003846</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3167161882005018</v>
+        <v>0.06952211806698472</v>
       </c>
       <c r="D17">
-        <v>0.9288042338228593</v>
+        <v>0.2820699329581657</v>
       </c>
       <c r="E17">
-        <v>0.01444986585389474</v>
+        <v>0.04556231114008913</v>
       </c>
       <c r="F17">
-        <v>24.13816242301971</v>
+        <v>15.72905494878484</v>
       </c>
       <c r="G17">
-        <v>0.000556567561823862</v>
+        <v>0.002859215109046806</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>18.39882825348548</v>
+        <v>11.82861426732723</v>
       </c>
       <c r="J17">
-        <v>0.3718193369973477</v>
+        <v>0.4173710468893148</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09067376225554824</v>
+        <v>0.2038416025143022</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.620230281550619</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3167161882005018</v>
+        <v>0.06799086703441048</v>
       </c>
       <c r="D18">
-        <v>0.9288042338228593</v>
+        <v>0.2780387114119094</v>
       </c>
       <c r="E18">
-        <v>0.01444986585389474</v>
+        <v>0.04559755608920568</v>
       </c>
       <c r="F18">
-        <v>24.13816242301971</v>
+        <v>15.65772089075125</v>
       </c>
       <c r="G18">
-        <v>0.000556567561823862</v>
+        <v>0.002863636355994122</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>18.39882825348548</v>
+        <v>11.77369331330868</v>
       </c>
       <c r="J18">
-        <v>0.3718193369973477</v>
+        <v>0.4169243127736308</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.09067376225554824</v>
+        <v>0.2040546285414635</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.620230281550619</v>
+        <v>3.857331695637072</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3167161882005018</v>
+        <v>0.0674736547126713</v>
       </c>
       <c r="D19">
-        <v>0.9288042338228593</v>
+        <v>0.276678986775579</v>
       </c>
       <c r="E19">
-        <v>0.01444986585389474</v>
+        <v>0.04560959372901419</v>
       </c>
       <c r="F19">
-        <v>24.13816242301971</v>
+        <v>15.63379069995256</v>
       </c>
       <c r="G19">
-        <v>0.000556567561823862</v>
+        <v>0.002865141965192757</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>18.39882825348548</v>
+        <v>11.75526618979336</v>
       </c>
       <c r="J19">
-        <v>0.3718193369973477</v>
+        <v>0.4167777705747682</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.09067376225554824</v>
+        <v>0.2041284148472258</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.620230281550619</v>
+        <v>3.828614786363971</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3167161882005018</v>
+        <v>0.06980611584307894</v>
       </c>
       <c r="D20">
-        <v>0.9288042338228593</v>
+        <v>0.2828185016638827</v>
       </c>
       <c r="E20">
-        <v>0.01444986585389474</v>
+        <v>0.04555583762105497</v>
       </c>
       <c r="F20">
-        <v>24.13816242301971</v>
+        <v>15.74236334751231</v>
       </c>
       <c r="G20">
-        <v>0.000556567561823862</v>
+        <v>0.002858400936445182</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>18.39882825348548</v>
+        <v>11.83885914654104</v>
       </c>
       <c r="J20">
-        <v>0.3718193369973477</v>
+        <v>0.4174559728007381</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09067376225554824</v>
+        <v>0.2038029651063553</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.620230281550619</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3167161882005018</v>
+        <v>0.07773374851836934</v>
       </c>
       <c r="D21">
-        <v>0.9288042338228593</v>
+        <v>0.3038193539928784</v>
       </c>
       <c r="E21">
-        <v>0.01444986585389474</v>
+        <v>0.04538247140498974</v>
       </c>
       <c r="F21">
-        <v>24.13816242301971</v>
+        <v>16.12290969293531</v>
       </c>
       <c r="G21">
-        <v>0.000556567561823862</v>
+        <v>0.002836348744423452</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>18.39882825348548</v>
+        <v>12.1316428719735</v>
       </c>
       <c r="J21">
-        <v>0.3718193369973477</v>
+        <v>0.4200663936182423</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.09067376225554824</v>
+        <v>0.2028253876126414</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.620230281550619</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3167161882005018</v>
+        <v>0.08298799772418874</v>
       </c>
       <c r="D22">
-        <v>0.9288042338228593</v>
+        <v>0.3178380017768347</v>
       </c>
       <c r="E22">
-        <v>0.01444986585389474</v>
+        <v>0.04527455774199352</v>
       </c>
       <c r="F22">
-        <v>24.13816242301971</v>
+        <v>16.38371855949526</v>
       </c>
       <c r="G22">
-        <v>0.000556567561823862</v>
+        <v>0.002822375055057358</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.39882825348548</v>
+        <v>12.33215241920033</v>
       </c>
       <c r="J22">
-        <v>0.3718193369973477</v>
+        <v>0.4220243461837185</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.09067376225554824</v>
+        <v>0.202273420662948</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.620230281550619</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3167161882005018</v>
+        <v>0.0801766670385291</v>
       </c>
       <c r="D23">
-        <v>0.9288042338228593</v>
+        <v>0.3103281254266221</v>
       </c>
       <c r="E23">
-        <v>0.01444986585389474</v>
+        <v>0.045331660615612</v>
       </c>
       <c r="F23">
-        <v>24.13816242301971</v>
+        <v>16.24338935905934</v>
       </c>
       <c r="G23">
-        <v>0.000556567561823862</v>
+        <v>0.002829793331219489</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>18.39882825348548</v>
+        <v>12.22428075172343</v>
       </c>
       <c r="J23">
-        <v>0.3718193369973477</v>
+        <v>0.4209559959261924</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.09067376225554824</v>
+        <v>0.2025600235459919</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.620230281550619</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3167161882005018</v>
+        <v>0.06967769959950942</v>
       </c>
       <c r="D24">
-        <v>0.9288042338228593</v>
+        <v>0.2824799842062475</v>
       </c>
       <c r="E24">
-        <v>0.01444986585389474</v>
+        <v>0.04555876235954059</v>
       </c>
       <c r="F24">
-        <v>24.13816242301971</v>
+        <v>15.73634265988687</v>
       </c>
       <c r="G24">
-        <v>0.000556567561823862</v>
+        <v>0.002858768861464047</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>18.39882825348548</v>
+        <v>11.83422444154195</v>
       </c>
       <c r="J24">
-        <v>0.3718193369973477</v>
+        <v>0.417417492560304</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.09067376225554824</v>
+        <v>0.2038204026507557</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.620230281550619</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3167161882005018</v>
+        <v>0.05863254563145404</v>
       </c>
       <c r="D25">
-        <v>0.9288042338228593</v>
+        <v>0.2536024829851726</v>
       </c>
       <c r="E25">
-        <v>0.01444986585389474</v>
+        <v>0.04582694284855893</v>
       </c>
       <c r="F25">
-        <v>24.13816242301971</v>
+        <v>15.2390946484964</v>
       </c>
       <c r="G25">
-        <v>0.000556567561823862</v>
+        <v>0.002891946121026568</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.39882825348548</v>
+        <v>11.45107342679313</v>
       </c>
       <c r="J25">
-        <v>0.3718193369973477</v>
+        <v>0.4146526848918199</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.09067376225554824</v>
+        <v>0.205549631469836</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.620230281550619</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_132/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_132/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05070303331908121</v>
+        <v>0.1967502173365574</v>
       </c>
       <c r="D2">
-        <v>0.2332309276366971</v>
+        <v>0.5829967014770716</v>
       </c>
       <c r="E2">
-        <v>0.04604448509146364</v>
+        <v>0.01421206701076771</v>
       </c>
       <c r="F2">
-        <v>14.91324311680154</v>
+        <v>16.07645254684735</v>
       </c>
       <c r="G2">
-        <v>0.002918073986712848</v>
+        <v>0.0006807561506723453</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.19940568461726</v>
+        <v>12.23455945302902</v>
       </c>
       <c r="J2">
-        <v>0.4134903892802129</v>
+        <v>0.2656263003753452</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2071373558207199</v>
+        <v>0.07650643299076876</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04543810182417474</v>
+        <v>0.1594933935736265</v>
       </c>
       <c r="D3">
-        <v>0.2199300229874552</v>
+        <v>0.476077612569128</v>
       </c>
       <c r="E3">
-        <v>0.0462045057043019</v>
+        <v>0.01425797257710015</v>
       </c>
       <c r="F3">
-        <v>14.716383197151</v>
+        <v>13.59712010286768</v>
       </c>
       <c r="G3">
-        <v>0.00293686367382925</v>
+        <v>0.000725670740008707</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.04696120098782</v>
+        <v>10.338763124373</v>
       </c>
       <c r="J3">
-        <v>0.4132330119170931</v>
+        <v>0.2339730024194822</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2084080281729008</v>
+        <v>0.072751092955329</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04225366310134859</v>
+        <v>0.1394234688708735</v>
       </c>
       <c r="D4">
-        <v>0.2119966071514625</v>
+        <v>0.4186755896411398</v>
       </c>
       <c r="E4">
-        <v>0.04630899095269991</v>
+        <v>0.01430991394932324</v>
       </c>
       <c r="F4">
-        <v>14.60697997074351</v>
+        <v>12.27520702672393</v>
       </c>
       <c r="G4">
-        <v>0.002948941771239945</v>
+        <v>0.0007516382942679863</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>10.96202227129362</v>
+        <v>9.327855060505982</v>
       </c>
       <c r="J4">
-        <v>0.4133321067961759</v>
+        <v>0.2173989349184637</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2092837934835892</v>
+        <v>0.07094242664825146</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04096734721807138</v>
+        <v>0.1317306016121194</v>
       </c>
       <c r="D5">
-        <v>0.2088201796358078</v>
+        <v>0.3967204208676662</v>
       </c>
       <c r="E5">
-        <v>0.04635313975006827</v>
+        <v>0.01433546389143903</v>
       </c>
       <c r="F5">
-        <v>14.56523231834893</v>
+        <v>11.77202630759075</v>
       </c>
       <c r="G5">
-        <v>0.002954000779421528</v>
+        <v>0.0007619856366428092</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>10.92954969324299</v>
+        <v>8.943021621512088</v>
       </c>
       <c r="J5">
-        <v>0.4134365316262603</v>
+        <v>0.211159345394897</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2096646463383678</v>
+        <v>0.07029914555774397</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068605894</v>
+        <v>5.958052239810286</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04075442023130904</v>
+        <v>0.1304779011950359</v>
       </c>
       <c r="D6">
-        <v>0.2082960865213863</v>
+        <v>0.3931480684596806</v>
       </c>
       <c r="E6">
-        <v>0.04636056555516221</v>
+        <v>0.01433993945303502</v>
       </c>
       <c r="F6">
-        <v>14.55846998389433</v>
+        <v>11.69030205998291</v>
       </c>
       <c r="G6">
-        <v>0.002954849132652956</v>
+        <v>0.0007636932499479092</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>10.92428587027445</v>
+        <v>8.880516525014173</v>
       </c>
       <c r="J6">
-        <v>0.413457721899178</v>
+        <v>0.2101499848031239</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2097293328199683</v>
+        <v>0.07019732598795869</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.2803432614038</v>
+        <v>5.919936152110552</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04223627035509026</v>
+        <v>0.1393179726257614</v>
       </c>
       <c r="D7">
-        <v>0.2119535427891606</v>
+        <v>0.4183743142728815</v>
       </c>
       <c r="E7">
-        <v>0.04630957999684027</v>
+        <v>0.01431024228631039</v>
       </c>
       <c r="F7">
-        <v>14.60640553169947</v>
+        <v>12.26829209907493</v>
       </c>
       <c r="G7">
-        <v>0.002949009442290111</v>
+        <v>0.0007517786214836842</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.96157571557316</v>
+        <v>9.322566664752912</v>
       </c>
       <c r="J7">
-        <v>0.413333256588146</v>
+        <v>0.2173129080367602</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2092888328137334</v>
+        <v>0.07093340291561034</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04887720126328077</v>
+        <v>0.1831498175109232</v>
       </c>
       <c r="D8">
-        <v>0.2285949924482793</v>
+        <v>0.543921527353973</v>
       </c>
       <c r="E8">
-        <v>0.04609836862104189</v>
+        <v>0.01422167140177244</v>
       </c>
       <c r="F8">
-        <v>14.84295510381548</v>
+        <v>15.16838412758989</v>
       </c>
       <c r="G8">
-        <v>0.002924440968055497</v>
+        <v>0.000696709572870062</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.14502178447376</v>
+        <v>11.54023706180587</v>
       </c>
       <c r="J8">
-        <v>0.4133479004539282</v>
+        <v>0.25395866033017</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2075556110779466</v>
+        <v>0.07508414115927664</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209882</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06231916246990465</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D9">
-        <v>0.263184562747341</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E9">
-        <v>0.04573349430175133</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F9">
-        <v>15.40017927948475</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G9">
-        <v>0.002880509321703251</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>11.57528781273442</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J9">
-        <v>0.4154463219016691</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2049180654707214</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07250352962753936</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D10">
-        <v>0.2899419851918594</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E10">
-        <v>0.04549529974901456</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F10">
-        <v>15.86993682970268</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G10">
-        <v>0.002850755127416633</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.9370448425725</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J10">
-        <v>0.4182935905188856</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2034490359930601</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07721590248792154</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D11">
-        <v>0.3024417553300225</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E11">
-        <v>0.04539339087058236</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F11">
-        <v>16.09755312645564</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G11">
-        <v>0.002837751999561609</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>12.11214286542514</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J11">
-        <v>0.419882658873604</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2028836782583454</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07901282628256467</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D12">
-        <v>0.30722522566316</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E12">
-        <v>0.0453557252531045</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F12">
-        <v>16.18581648607648</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G12">
-        <v>0.002832903357964923</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>12.18001544486083</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J12">
-        <v>0.4205275429961972</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2026844950552231</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735713398</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07862525599406922</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D13">
-        <v>0.3061927437985901</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E13">
-        <v>0.04536379610535901</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F13">
-        <v>16.16671420453912</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G13">
-        <v>0.002833944266697669</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>12.16532732895178</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J13">
-        <v>0.4203867224228901</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2027267280018776</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07736348091248146</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D14">
-        <v>0.3028342731927296</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E14">
-        <v>0.04539027356878123</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F14">
-        <v>16.10477271695669</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G14">
-        <v>0.002837351595314271</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>12.11769507480591</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J14">
-        <v>0.4199348440663329</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2028669919647186</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139238</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07659225993793939</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D15">
-        <v>0.3007837249947158</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E15">
-        <v>0.0454066121936938</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F15">
-        <v>16.06710342733282</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G15">
-        <v>0.002839448460991947</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>12.08872457605707</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J15">
-        <v>0.4196637005733095</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2029548521475704</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07219725028929247</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D16">
-        <v>0.2891319392111882</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E16">
-        <v>0.04550208928837152</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F16">
-        <v>15.85534744512699</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G16">
-        <v>0.002851615522453562</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.92581811945206</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J16">
-        <v>0.4181957283879427</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.203488063243455</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003846</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06952211806698472</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D17">
-        <v>0.2820699329581657</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E17">
-        <v>0.04556231114008913</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F17">
-        <v>15.72905494878484</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G17">
-        <v>0.002859215109046806</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.82861426732723</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J17">
-        <v>0.4173710468893148</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2038416025143022</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06799086703441048</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D18">
-        <v>0.2780387114119094</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E18">
-        <v>0.04559755608920568</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F18">
-        <v>15.65772089075125</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G18">
-        <v>0.002863636355994122</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.77369331330868</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J18">
-        <v>0.4169243127736308</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2040546285414635</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637072</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0674736547126713</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D19">
-        <v>0.276678986775579</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E19">
-        <v>0.04560959372901419</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F19">
-        <v>15.63379069995256</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G19">
-        <v>0.002865141965192757</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.75526618979336</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J19">
-        <v>0.4167777705747682</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2041284148472258</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786363971</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06980611584307894</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D20">
-        <v>0.2828185016638827</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E20">
-        <v>0.04555583762105497</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F20">
-        <v>15.74236334751231</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G20">
-        <v>0.002858400936445182</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.83885914654104</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J20">
-        <v>0.4174559728007381</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2038029651063553</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07773374851836934</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D21">
-        <v>0.3038193539928784</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E21">
-        <v>0.04538247140498974</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F21">
-        <v>16.12290969293531</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G21">
-        <v>0.002836348744423452</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>12.1316428719735</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J21">
-        <v>0.4200663936182423</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2028253876126414</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08298799772418874</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D22">
-        <v>0.3178380017768347</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E22">
-        <v>0.04527455774199352</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F22">
-        <v>16.38371855949526</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G22">
-        <v>0.002822375055057358</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>12.33215241920033</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J22">
-        <v>0.4220243461837185</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.202273420662948</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0801766670385291</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D23">
-        <v>0.3103281254266221</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E23">
-        <v>0.045331660615612</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F23">
-        <v>16.24338935905934</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G23">
-        <v>0.002829793331219489</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>12.22428075172343</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J23">
-        <v>0.4209559959261924</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2025600235459919</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06967769959950942</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D24">
-        <v>0.2824799842062475</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E24">
-        <v>0.04555876235954059</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F24">
-        <v>15.73634265988687</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G24">
-        <v>0.002858768861464047</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.83422444154195</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J24">
-        <v>0.417417492560304</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2038204026507557</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05863254563145404</v>
+        <v>0.3167161882008145</v>
       </c>
       <c r="D25">
-        <v>0.2536024829851726</v>
+        <v>0.9288042338224614</v>
       </c>
       <c r="E25">
-        <v>0.04582694284855893</v>
+        <v>0.01444986585399333</v>
       </c>
       <c r="F25">
-        <v>15.2390946484964</v>
+        <v>24.13816242301993</v>
       </c>
       <c r="G25">
-        <v>0.002891946121026568</v>
+        <v>0.0005565675615554442</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.45107342679313</v>
+        <v>18.3988282534857</v>
       </c>
       <c r="J25">
-        <v>0.4146526848918199</v>
+        <v>0.3718193369973619</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.205549631469836</v>
+        <v>0.0906737622557614</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O25">
         <v>0</v>
